--- a/modelos/OBAPPA4451054/OBAPPA4451054_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451054/OBAPPA4451054_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>17.81951275455267</v>
+        <v>18.369379811529</v>
       </c>
       <c r="C2" t="n">
-        <v>8.403911513478267</v>
+        <v>9.242221929119866</v>
       </c>
       <c r="D2" t="n">
-        <v>26.45958134039077</v>
+        <v>27.65681066860919</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -496,13 +496,13 @@
         <v>45047</v>
       </c>
       <c r="B3" t="n">
-        <v>15.552898441429</v>
+        <v>16.2582796049482</v>
       </c>
       <c r="C3" t="n">
-        <v>7.054095053712619</v>
+        <v>6.669553583796795</v>
       </c>
       <c r="D3" t="n">
-        <v>24.63702869424034</v>
+        <v>24.77960875274369</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -516,13 +516,13 @@
         <v>45056</v>
       </c>
       <c r="B4" t="n">
-        <v>24.087993068319</v>
+        <v>21.88486867073604</v>
       </c>
       <c r="C4" t="n">
-        <v>14.50573737567441</v>
+        <v>12.09160904527289</v>
       </c>
       <c r="D4" t="n">
-        <v>33.06091272328237</v>
+        <v>31.74480414360598</v>
       </c>
       <c r="E4" t="n">
         <v>38</v>
@@ -536,13 +536,13 @@
         <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>21.54044149068152</v>
+        <v>22.0038726260677</v>
       </c>
       <c r="C5" t="n">
-        <v>12.19509514363928</v>
+        <v>12.74741263995561</v>
       </c>
       <c r="D5" t="n">
-        <v>31.07133237994545</v>
+        <v>32.63042693621728</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
@@ -617,22 +617,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>193.5439368671402</v>
+        <v>259.6974577594247</v>
       </c>
       <c r="C2" t="n">
-        <v>13.912006931681</v>
+        <v>16.11513132926396</v>
       </c>
       <c r="D2" t="n">
-        <v>13.912006931681</v>
+        <v>16.11513132926396</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3661054455705527</v>
+        <v>0.4240824034016831</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3661054455705527</v>
+        <v>0.4240824034016831</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4481383998472239</v>
+        <v>0.5382037795847733</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>194.7453649162255</v>
+        <v>182.6688504730008</v>
       </c>
       <c r="C3" t="n">
-        <v>13.95511966685437</v>
+        <v>13.515504077651</v>
       </c>
       <c r="D3" t="n">
-        <v>12.05601009823328</v>
+        <v>11.7920710698635</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4034416724129802</v>
+        <v>0.399627735771047</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3635888301945475</v>
+        <v>0.3439507210168214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4987343548243045</v>
+        <v>0.4836270258193839</v>
       </c>
       <c r="H3" t="n">
         <v>0.3333333333333334</v>

--- a/modelos/OBAPPA4451054/OBAPPA4451054_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451054/OBAPPA4451054_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>18.369379811529</v>
+        <v>18.16965841353677</v>
       </c>
       <c r="C2" t="n">
-        <v>9.242221929119866</v>
+        <v>9.717525180369659</v>
       </c>
       <c r="D2" t="n">
-        <v>27.65681066860919</v>
+        <v>27.18976458222413</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -496,13 +496,13 @@
         <v>45047</v>
       </c>
       <c r="B3" t="n">
-        <v>16.2582796049482</v>
+        <v>14.49492002225889</v>
       </c>
       <c r="C3" t="n">
-        <v>6.669553583796795</v>
+        <v>5.620393709783058</v>
       </c>
       <c r="D3" t="n">
-        <v>24.77960875274369</v>
+        <v>23.37161306845443</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -516,13 +516,13 @@
         <v>45056</v>
       </c>
       <c r="B4" t="n">
-        <v>21.88486867073604</v>
+        <v>23.30368728306766</v>
       </c>
       <c r="C4" t="n">
-        <v>12.09160904527289</v>
+        <v>12.97507864894134</v>
       </c>
       <c r="D4" t="n">
-        <v>31.74480414360598</v>
+        <v>33.59039072614036</v>
       </c>
       <c r="E4" t="n">
         <v>38</v>
@@ -536,13 +536,13 @@
         <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>22.0038726260677</v>
+        <v>21.65382515334479</v>
       </c>
       <c r="C5" t="n">
-        <v>12.74741263995561</v>
+        <v>11.49433833429166</v>
       </c>
       <c r="D5" t="n">
-        <v>32.63042693621728</v>
+        <v>31.83138108002251</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
@@ -617,22 +617,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>259.6974577594247</v>
+        <v>215.9816074738673</v>
       </c>
       <c r="C2" t="n">
-        <v>16.11513132926396</v>
+        <v>14.69631271693234</v>
       </c>
       <c r="D2" t="n">
-        <v>16.11513132926396</v>
+        <v>14.69631271693234</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4240824034016831</v>
+        <v>0.3867450714982196</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4240824034016831</v>
+        <v>0.3867450714982196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5382037795847733</v>
+        <v>0.4794593398296786</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>182.6688504730008</v>
+        <v>208.2574430229923</v>
       </c>
       <c r="C3" t="n">
-        <v>13.515504077651</v>
+        <v>14.43112757281954</v>
       </c>
       <c r="D3" t="n">
-        <v>11.7920710698635</v>
+        <v>12.32974890584971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.399627735771047</v>
+        <v>0.4110278178922581</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3439507210168214</v>
+        <v>0.3510836280879725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4836270258193839</v>
+        <v>0.5135668496879497</v>
       </c>
       <c r="H3" t="n">
         <v>0.3333333333333334</v>

--- a/modelos/OBAPPA4451054/OBAPPA4451054_Sell Out_metricas.xlsx
+++ b/modelos/OBAPPA4451054/OBAPPA4451054_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>18.16965841353677</v>
+        <v>17.7112747958425</v>
       </c>
       <c r="C2" t="n">
-        <v>9.717525180369659</v>
+        <v>7.717698302496759</v>
       </c>
       <c r="D2" t="n">
-        <v>27.18976458222413</v>
+        <v>27.28502783301484</v>
       </c>
       <c r="E2" t="n">
         <v>28</v>
@@ -496,13 +496,13 @@
         <v>45047</v>
       </c>
       <c r="B3" t="n">
-        <v>14.49492002225889</v>
+        <v>14.18832060847603</v>
       </c>
       <c r="C3" t="n">
-        <v>5.620393709783058</v>
+        <v>4.679178416545517</v>
       </c>
       <c r="D3" t="n">
-        <v>23.37161306845443</v>
+        <v>23.82608268827212</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -516,13 +516,13 @@
         <v>45056</v>
       </c>
       <c r="B4" t="n">
-        <v>23.30368728306766</v>
+        <v>24.01727682690903</v>
       </c>
       <c r="C4" t="n">
-        <v>12.97507864894134</v>
+        <v>12.93801007398071</v>
       </c>
       <c r="D4" t="n">
-        <v>33.59039072614036</v>
+        <v>34.54839062069247</v>
       </c>
       <c r="E4" t="n">
         <v>38</v>
@@ -536,13 +536,13 @@
         <v>45061</v>
       </c>
       <c r="B5" t="n">
-        <v>21.65382515334479</v>
+        <v>21.40555091986611</v>
       </c>
       <c r="C5" t="n">
-        <v>11.49433833429166</v>
+        <v>10.85240285105854</v>
       </c>
       <c r="D5" t="n">
-        <v>31.83138108002251</v>
+        <v>31.195690550727</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
@@ -617,22 +617,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>215.9816074738673</v>
+        <v>195.5165473352952</v>
       </c>
       <c r="C2" t="n">
-        <v>14.69631271693234</v>
+        <v>13.98272317309097</v>
       </c>
       <c r="D2" t="n">
-        <v>14.69631271693234</v>
+        <v>13.98272317309097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3867450714982196</v>
+        <v>0.3679663992918676</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3867450714982196</v>
+        <v>0.3679663992918676</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4794593398296786</v>
+        <v>0.4509299307712888</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>208.2574430229923</v>
+        <v>215.2131539652927</v>
       </c>
       <c r="C3" t="n">
-        <v>14.43112757281954</v>
+        <v>14.67014498787564</v>
       </c>
       <c r="D3" t="n">
-        <v>12.32974890584971</v>
+        <v>12.5019851718492</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4110278178922581</v>
+        <v>0.4143788003778063</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3510836280879725</v>
+        <v>0.3674544715770537</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5135668496879497</v>
+        <v>0.5236228432691921</v>
       </c>
       <c r="H3" t="n">
         <v>0.3333333333333334</v>
